--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2739.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2739.xlsx
@@ -354,7 +354,7 @@
         <v>2.404923296710976</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.370007733967032</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2739.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2739.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.159093228703012</v>
+        <v>1.027700543403625</v>
       </c>
       <c r="B1">
-        <v>2.404923296710976</v>
+        <v>2.068806171417236</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.879647493362427</v>
       </c>
       <c r="D1">
-        <v>2.370007733967032</v>
+        <v>3.488574981689453</v>
       </c>
       <c r="E1">
-        <v>1.220656244337473</v>
+        <v>2.0228590965271</v>
       </c>
     </row>
   </sheetData>
